--- a/bim2sim/assets/distribution/distribution_system.xlsx
+++ b/bim2sim/assets/distribution/distribution_system.xlsx
@@ -1,29 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02_Masterarbeit\13_Datenbank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_Arbeit\19_bim2sim\lca_heating_distribution\bim2sim\bim2sim\assets\distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F506F4-D472-4A7B-9391-53004946F77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B478E49-5FC1-415B-8F4B-87CD7CF6E878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{AA4435EC-6D29-4471-A9A3-A3CE4E49EB19}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{AA4435EC-6D29-4471-A9A3-A3CE4E49EB19}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kupferrohre" sheetId="4" r:id="rId1"/>
-    <sheet name="Stahlrohre" sheetId="11" r:id="rId2"/>
+    <sheet name="copper_pipe" sheetId="4" r:id="rId1"/>
+    <sheet name="steel_pipe" sheetId="11" r:id="rId2"/>
     <sheet name="Kupferohre_2" sheetId="12" r:id="rId3"/>
     <sheet name="Profilierte Flachheizkörper" sheetId="7" r:id="rId4"/>
     <sheet name="Stahlrohrradiatoren" sheetId="6" r:id="rId5"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId6"/>
-    <sheet name="Fensterbankradiatoren" sheetId="2" r:id="rId7"/>
-    <sheet name="Tabelle5" sheetId="5" r:id="rId8"/>
-    <sheet name="Tabelle2" sheetId="8" r:id="rId9"/>
-    <sheet name="Tabelle3" sheetId="9" r:id="rId10"/>
-    <sheet name="Tabelle4" sheetId="10" r:id="rId11"/>
+    <sheet name="Fensterbankradiatoren" sheetId="2" r:id="rId6"/>
+    <sheet name="Tabelle2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,77 +42,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="58">
   <si>
     <t>zul. Betriebs- druck*) (bar)</t>
   </si>
   <si>
-    <t>28 x 1,5</t>
-  </si>
-  <si>
-    <t>10x 1</t>
-  </si>
-  <si>
-    <t>42 x 1,2</t>
-  </si>
-  <si>
-    <t>12 x 1</t>
-  </si>
-  <si>
-    <t>64 x 2</t>
-  </si>
-  <si>
-    <t>15 x 0,8</t>
-  </si>
-  <si>
-    <t>76,1 x 2</t>
-  </si>
-  <si>
-    <t>15 x 1</t>
-  </si>
-  <si>
-    <t>88,9 x 2</t>
-  </si>
-  <si>
-    <t>18 x 1</t>
-  </si>
-  <si>
-    <t>108 x 2,5</t>
-  </si>
-  <si>
-    <t>22 x 1</t>
-  </si>
-  <si>
-    <t>133 x3</t>
-  </si>
-  <si>
-    <t>28 x 1</t>
-  </si>
-  <si>
-    <t>159 x 3</t>
-  </si>
-  <si>
-    <t>10 x 0,6</t>
-  </si>
-  <si>
-    <t>12 x 0,7</t>
-  </si>
-  <si>
-    <t>14 x 0,8</t>
-  </si>
-  <si>
-    <t>35x1,2</t>
-  </si>
-  <si>
-    <t>54x1,5</t>
-  </si>
-  <si>
-    <t>„Eine Berechnungsgrundlage für die energetische Bewertung von Verteilsystemen liefert die DIN V 18599, Teil 5: Heizung, Teil 7: Kaltwasser und Teil 8: Trinkwarmwasser. Auch wenn diese Norm zunächst nur für Nichtwohngebäude anzuwenden ist, ermöglicht sie im Vergleich zur DIN 4701-10 die Berücksichtigung wichtiger Einflussgrößen für die Energiebilanz.“ (“Recknagel - Taschenbuch für Heizung + Klimatechnik 2017/2018: Einschließlich Trinkwasser- und Kältetechnik sowie Energiekonzepte”, 2016, p. 1349)</t>
-  </si>
-  <si>
-    <t>Abmessung Aussendurchmesser X Wanddicke (mm)</t>
-  </si>
-  <si>
     <t>Volumen (l/m)</t>
   </si>
   <si>
@@ -261,22 +191,31 @@
     <t>Kupfer</t>
   </si>
   <si>
-    <t>Dichte kg/m³</t>
-  </si>
-  <si>
-    <t>Rohrgewicht [kg/m]</t>
-  </si>
-  <si>
     <t>Rohr + Wasser [kg/m]</t>
   </si>
   <si>
-    <t>Normwanddicke  [mm]</t>
-  </si>
-  <si>
     <t>Wasserinhalt [I/m]</t>
   </si>
   <si>
-    <t>Außendurchmesser [mm]</t>
+    <t>outer_diameter [mm]</t>
+  </si>
+  <si>
+    <t>normal_wall_thickness [mm]</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>density [kg/m³]</t>
+  </si>
+  <si>
+    <t>pipe_mass [kg/m]</t>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>steel</t>
   </si>
 </sst>
 </file>
@@ -341,187 +280,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>8095</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123357</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0728A30-145B-E992-CBAD-90879721E136}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="762000" y="1524000"/>
-          <a:ext cx="11438095" cy="3742857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>503428</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>75548</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC60594-4970-4F3F-E73E-1DC739C852E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="762000" y="5905500"/>
-          <a:ext cx="11171428" cy="5219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>693809</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>45262</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6CD53F-4AFB-FE68-A127-3FE8D0142A70}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="762000" y="11811000"/>
-          <a:ext cx="12123809" cy="18904762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>437029</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>54648</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>81970</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Grafik 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077B8452-9AB9-6B07-DD6E-758910A1BCA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11867029" y="3597089"/>
-          <a:ext cx="11047619" cy="3152381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>44</xdr:row>
@@ -556,241 +314,6 @@
         <a:xfrm>
           <a:off x="28194000" y="9144000"/>
           <a:ext cx="11295238" cy="18123809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>469808</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>758724</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2110205-7E98-C6B7-944E-56628FCC7FFC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1231808" y="3119438"/>
-          <a:ext cx="7146916" cy="11144249"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>36667</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>37167</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB19A001-9779-8C55-7EE9-FC1948022379}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14478000" y="7429500"/>
-          <a:ext cx="11466667" cy="7466667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>570095</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>74024</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A6EDF32-12CB-3DC0-B45B-DE7254C2A7C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10668000" y="16002000"/>
-          <a:ext cx="11238095" cy="17409524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>639014</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133818</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB9DF0A-22CF-9D38-AA23-2BBF8E081EDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5295900" y="971550"/>
-          <a:ext cx="6011114" cy="3353268"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>524759</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>299</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A99F84-917B-E99D-91EC-2916DC301400}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571750" y="2047875"/>
-          <a:ext cx="6335009" cy="2143424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1099,412 +622,446 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C079EA-41C3-4B24-BDBC-D08E7C390A8A}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0.6</v>
+      </c>
+      <c r="C2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D2">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+      <c r="D3">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.7</v>
+      </c>
+      <c r="C4">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D4">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.8</v>
+      </c>
+      <c r="C6">
+        <v>0.121</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D7">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D8">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D9">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.314</v>
+      </c>
+      <c r="D10">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D11">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>1.5</v>
+      </c>
+      <c r="C12">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D12">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>1.2</v>
+      </c>
+      <c r="C13">
+        <v>0.48349999999999999</v>
+      </c>
+      <c r="D13">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>1.2</v>
+      </c>
+      <c r="C14">
+        <v>1.232</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <v>1.5</v>
+      </c>
+      <c r="C15">
+        <v>2.0430000000000001</v>
+      </c>
+      <c r="D15">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2.827</v>
+      </c>
+      <c r="D16">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>76</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>4.0830000000000002</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>88.9</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>5.6609999999999996</v>
+      </c>
+      <c r="D18">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="C2">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2">
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18">
         <v>8960</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.05</v>
-      </c>
-      <c r="C3">
-        <v>111</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>108</v>
+      </c>
+      <c r="B19">
+        <v>2.5</v>
+      </c>
+      <c r="C19">
+        <v>8.3320000000000007</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19">
         <v>8960</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="C4">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>133</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>12.667999999999999</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20">
         <v>8960</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="C5">
-        <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>0.121</v>
-      </c>
-      <c r="C6">
-        <v>60</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="C7">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>159</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>18.385000000000002</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
         <v>56</v>
       </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="C8">
-        <v>71</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="C9">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0.314</v>
-      </c>
-      <c r="C10">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="C11">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="C12">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>0.48349999999999999</v>
-      </c>
-      <c r="C13">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>1.232</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>2.0430000000000001</v>
-      </c>
-      <c r="C15">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>2.827</v>
-      </c>
-      <c r="C16">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>4.0830000000000002</v>
-      </c>
-      <c r="C17">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>5.6609999999999996</v>
-      </c>
-      <c r="C18">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
-        <v>8.3320000000000007</v>
-      </c>
-      <c r="C19">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>12.667999999999999</v>
-      </c>
-      <c r="C20">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>18.385000000000002</v>
-      </c>
-      <c r="C21">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21">
+      <c r="F21">
         <v>8960</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9BFC4B-66F1-4393-895D-7A8E1F5C457D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F892C0-6D4B-4E83-B72F-A3FD76036113}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1512,14 +1069,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4279D3BF-76C8-4CFB-97B8-5A658E50E056}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -1528,25 +1085,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1566,7 +1123,7 @@
         <v>0.38</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>7850</v>
@@ -1589,7 +1146,7 @@
         <v>0.6</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G3">
         <v>7850</v>
@@ -1612,7 +1169,7 @@
         <v>0.75</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G4">
         <v>7850</v>
@@ -1635,7 +1192,7 @@
         <v>0.83</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G5">
         <v>7850</v>
@@ -1658,7 +1215,7 @@
         <v>1.02</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G6">
         <v>7850</v>
@@ -1681,7 +1238,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G7">
         <v>7850</v>
@@ -1704,7 +1261,7 @@
         <v>1.19</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>7850</v>
@@ -1727,7 +1284,7 @@
         <v>1.48</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G9">
         <v>7850</v>
@@ -1750,7 +1307,7 @@
         <v>1.51</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G10">
         <v>7850</v>
@@ -1773,7 +1330,7 @@
         <v>1.64</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G11">
         <v>7850</v>
@@ -1796,7 +1353,7 @@
         <v>1.91</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G12">
         <v>7850</v>
@@ -1819,7 +1376,7 @@
         <v>2.08</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G13">
         <v>7850</v>
@@ -1842,7 +1399,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G14">
         <v>7850</v>
@@ -1865,7 +1422,7 @@
         <v>2.9</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G15">
         <v>7850</v>
@@ -1888,7 +1445,7 @@
         <v>3.4</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G16">
         <v>7850</v>
@@ -1911,7 +1468,7 @@
         <v>3.64</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G17">
         <v>7850</v>
@@ -1934,7 +1491,7 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G18">
         <v>7850</v>
@@ -1957,7 +1514,7 @@
         <v>4.45</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G19">
         <v>7850</v>
@@ -1980,7 +1537,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G20">
         <v>7850</v>
@@ -2003,7 +1560,7 @@
         <v>5.26</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G21">
         <v>7850</v>
@@ -2026,7 +1583,7 @@
         <v>5.73</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G22">
         <v>7850</v>
@@ -2049,7 +1606,7 @@
         <v>6.57</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G23">
         <v>7850</v>
@@ -2072,7 +1629,7 @@
         <v>7.62</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G24">
         <v>7850</v>
@@ -2095,7 +1652,7 @@
         <v>8.1199999999999992</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G25">
         <v>7850</v>
@@ -2118,7 +1675,7 @@
         <v>8.66</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G26">
         <v>7850</v>
@@ -2141,7 +1698,7 @@
         <v>9.82</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G27">
         <v>7850</v>
@@ -2164,7 +1721,7 @@
         <v>11.57</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G28">
         <v>7850</v>
@@ -2187,7 +1744,7 @@
         <v>14.27</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G29">
         <v>7850</v>
@@ -2210,7 +1767,7 @@
         <v>17.25</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G30">
         <v>7850</v>
@@ -2233,7 +1790,7 @@
         <v>18.84</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G31">
         <v>7850</v>
@@ -2256,7 +1813,7 @@
         <v>23.26</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G32">
         <v>7850</v>
@@ -2279,7 +1836,7 @@
         <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G33">
         <v>7850</v>
@@ -2302,7 +1859,7 @@
         <v>27.01</v>
       </c>
       <c r="F34" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G34">
         <v>7850</v>
@@ -2325,7 +1882,7 @@
         <v>32.56</v>
       </c>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G35">
         <v>7850</v>
@@ -2348,7 +1905,7 @@
         <v>34.82</v>
       </c>
       <c r="F36" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G36">
         <v>7850</v>
@@ -2371,7 +1928,7 @@
         <v>38.11</v>
       </c>
       <c r="F37" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G37">
         <v>7850</v>
@@ -2394,7 +1951,7 @@
         <v>43.42</v>
       </c>
       <c r="F38" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G38">
         <v>7850</v>
@@ -2410,40 +1967,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CC573A-5087-46E6-9620-CEE282A3EFD6}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2463,10 +2020,10 @@
         <v>0.3</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G2">
-        <v>8960</v>
+        <v>7850</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2486,7 +2043,7 @@
         <v>0.39</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G3">
         <v>8960</v>
@@ -2509,7 +2066,7 @@
         <v>0.53</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G4">
         <v>8960</v>
@@ -2532,7 +2089,7 @@
         <v>0.68</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G5">
         <v>8960</v>
@@ -2555,7 +2112,7 @@
         <v>0.91</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G6">
         <v>8960</v>
@@ -2578,7 +2135,7 @@
         <v>1.61</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G7">
         <v>8960</v>
@@ -2601,7 +2158,7 @@
         <v>222</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>8960</v>
@@ -2624,7 +2181,7 @@
         <v>2.9</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G9">
         <v>8960</v>
@@ -2647,7 +2204,7 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G10">
         <v>8960</v>
@@ -2670,7 +2227,7 @@
         <v>6.32</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G11">
         <v>8960</v>
@@ -2693,7 +2250,7 @@
         <v>8.25</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G12">
         <v>8960</v>
@@ -2716,7 +2273,7 @@
         <v>10.55</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G13">
         <v>8960</v>
@@ -2739,7 +2296,7 @@
         <v>15.76</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G14">
         <v>8960</v>
@@ -2762,7 +2319,7 @@
         <v>23.65</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G15">
         <v>8960</v>
@@ -2785,7 +2342,7 @@
         <v>31.56</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G16">
         <v>8960</v>
@@ -2808,7 +2365,7 @@
         <v>53.87</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G17">
         <v>8960</v>
@@ -2831,7 +2388,7 @@
         <v>75.8</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G18">
         <v>8960</v>
@@ -2839,6 +2396,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2864,31 +2422,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
-        <v>64</v>
-      </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2911,7 +2469,7 @@
         <v>11.6</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2934,7 +2492,7 @@
         <v>14.1</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2963,7 +2521,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2986,7 +2544,7 @@
         <v>23.1</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3009,7 +2567,7 @@
         <v>34.200000000000003</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3032,7 +2590,7 @@
         <v>15.2</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3055,7 +2613,7 @@
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3084,7 +2642,7 @@
         <v>28.5</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3107,7 +2665,7 @@
         <v>32.700000000000003</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3130,7 +2688,7 @@
         <v>48.7</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3153,7 +2711,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3176,7 +2734,7 @@
         <v>22.1</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3205,7 +2763,7 @@
         <v>33.799999999999997</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3228,7 +2786,7 @@
         <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3251,7 +2809,7 @@
         <v>58.1</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3274,7 +2832,7 @@
         <v>24.3</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3297,7 +2855,7 @@
         <v>31.5</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3326,7 +2884,7 @@
         <v>49.9</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3349,7 +2907,7 @@
         <v>57.8</v>
       </c>
       <c r="I20" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3372,12 +2930,12 @@
         <v>86.2</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3390,7 +2948,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CG262" sqref="CG262"/>
+      <selection activeCell="L28" sqref="L27:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3400,21 +2958,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD95FE7F-A141-433B-9809-3E2006FF7507}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E6B0A8-2D67-4CB1-A187-32AB4D6088EE}">
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -3445,31 +2988,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4060,7 +3603,7 @@
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4069,28 +3612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAAD34D-3FE4-42C2-AAAF-A29564708330}">
-  <dimension ref="Q32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="32" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F89F3-D74B-468A-9004-D3B4B816BE2B}">
   <dimension ref="A1:I26"/>
   <sheetViews>
@@ -4113,84 +3635,84 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4619,13 +4141,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>400</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
